--- a/www.eia.gov/electricity/monthly/xls/table_2_09_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_09_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t>Table 2.9.A. Consumption of Petroleum Liquids for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Thousand Barrels)</t>
+    <t>November 2016 and November 2015 (Thousand Barrels)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1353,75 +1353,75 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C6" s="13">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D6" s="14">
-        <v>4.66</v>
+        <v>1.63</v>
       </c>
       <c r="E6" s="13">
         <v>4</v>
       </c>
       <c r="F6" s="13">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>87</v>
+      </c>
+      <c r="H6" s="13">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
-        <v>126</v>
-      </c>
-      <c r="H6" s="13">
-        <v>17</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13">
-        <v>2</v>
+      <c r="K6" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="L6" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
+      <c r="B7" s="16">
+        <v>11</v>
       </c>
       <c r="C7" s="16">
-        <v>4</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.17</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
       </c>
       <c r="F7" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>14</v>
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="16">
+        <v>8</v>
       </c>
       <c r="H7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="16">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="16">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1429,34 +1429,34 @@
         <v>16</v>
       </c>
       <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-0.45</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5</v>
+      </c>
+      <c r="H8" s="16">
         <v>9</v>
       </c>
-      <c r="C8" s="16">
-        <v>14</v>
-      </c>
-      <c r="D8" s="17">
-        <v>-0.4</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>7</v>
-      </c>
-      <c r="H8" s="16">
-        <v>13</v>
-      </c>
       <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="L8" s="16">
         <v>1</v>
@@ -1467,37 +1467,37 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C9" s="16">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="17">
+        <v>7.43</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="16">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="H9" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1508,28 +1508,28 @@
         <v>14</v>
       </c>
       <c r="C10" s="16">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="H10" s="16">
-        <v>0.21</v>
+        <v>2</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="16">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>14</v>
@@ -1542,26 +1542,26 @@
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>14</v>
+      <c r="B11" s="16">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.38</v>
       </c>
       <c r="E11" s="16">
         <v>2</v>
       </c>
       <c r="F11" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>14</v>
+        <v>0.18</v>
+      </c>
+      <c r="G11" s="16">
+        <v>9</v>
       </c>
       <c r="H11" s="16">
-        <v>0.01</v>
+        <v>8</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>14</v>
@@ -1584,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="16">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>14</v>
@@ -1593,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="16">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -1619,25 +1619,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.12</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" s="13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G13" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>14</v>
@@ -1646,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L13" s="13">
         <v>3</v>
@@ -1660,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>14</v>
@@ -1671,17 +1671,17 @@
       <c r="F14" s="16">
         <v>0.05</v>
       </c>
-      <c r="G14" s="16">
-        <v>4</v>
+      <c r="G14" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>14</v>
@@ -1695,25 +1695,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="16">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D15" s="17">
-        <v>-8.8999999999999996E-2</v>
+        <v>1.26</v>
       </c>
       <c r="E15" s="16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16">
-        <v>21</v>
-      </c>
-      <c r="G15" s="16">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>14</v>
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" s="16">
         <v>2</v>
@@ -1733,13 +1733,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>14</v>
@@ -1751,16 +1751,16 @@
         <v>31</v>
       </c>
       <c r="H16" s="16">
-        <v>38</v>
-      </c>
-      <c r="I16" s="16">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>14</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K16" s="16">
+        <v>5</v>
       </c>
       <c r="L16" s="16">
         <v>1</v>
@@ -1771,37 +1771,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C17" s="13">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D17" s="14">
-        <v>-2.4E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E17" s="13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" s="13">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H17" s="13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="13">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="K17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1809,25 +1809,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" s="17">
-        <v>-2E-3</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>14</v>
@@ -1847,19 +1847,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.38</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E19" s="16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>14</v>
@@ -1871,13 +1871,13 @@
         <v>14</v>
       </c>
       <c r="J19" s="16">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="K19" s="16">
         <v>1</v>
       </c>
       <c r="L19" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1885,19 +1885,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="16">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="J20" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>14</v>
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1</v>
       </c>
       <c r="L20" s="16">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,37 +1923,37 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21" s="16">
+        <v>16</v>
+      </c>
+      <c r="F21" s="16">
+        <v>10</v>
+      </c>
+      <c r="G21" s="16">
         <v>27</v>
       </c>
-      <c r="C21" s="16">
+      <c r="H21" s="16">
         <v>23</v>
       </c>
-      <c r="D21" s="17">
-        <v>0.16</v>
-      </c>
-      <c r="E21" s="16">
-        <v>6</v>
-      </c>
-      <c r="F21" s="16">
-        <v>5</v>
-      </c>
-      <c r="G21" s="16">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16">
-        <v>17</v>
-      </c>
       <c r="I21" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="16">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="16">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,22 +1961,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="16">
         <v>5</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.36</v>
+        <v>-0.5</v>
       </c>
       <c r="E22" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="16">
         <v>5</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="16">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1999,37 +1999,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C23" s="13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D23" s="14">
-        <v>0.55000000000000004</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F23" s="13">
-        <v>25</v>
-      </c>
-      <c r="G23" s="13">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="13">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="13">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="13">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2037,31 +2037,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="17">
-        <v>1.44</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F24" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="16">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>14</v>
@@ -2075,19 +2075,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" s="16">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17">
-        <v>1.85</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E25" s="16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F25" s="16">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>14</v>
@@ -2131,19 +2131,19 @@
         <v>14</v>
       </c>
       <c r="H26" s="16">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="16">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,19 +2151,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C27" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.22</v>
+        <v>0.33</v>
       </c>
       <c r="E27" s="16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F27" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>14</v>
@@ -2192,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>14</v>
@@ -2201,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2226,20 +2226,20 @@
       <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>14</v>
+      <c r="B29" s="16">
+        <v>6</v>
       </c>
       <c r="C29" s="16">
-        <v>3</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6</v>
       </c>
       <c r="F29" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="16">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>14</v>
@@ -2277,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>14</v>
@@ -2303,37 +2303,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C31" s="13">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="D31" s="14">
-        <v>0.22</v>
+        <v>-0.41</v>
       </c>
       <c r="E31" s="13">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F31" s="13">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="G31" s="13">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H31" s="13">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="13">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="K31" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L31" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>14</v>
@@ -2353,13 +2353,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="16">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="16">
-        <v>0.38</v>
+        <v>4</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="16">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>14</v>
@@ -2403,7 +2403,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="16">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
@@ -2417,25 +2417,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C34" s="16">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="D34" s="17">
-        <v>0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="E34" s="16">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F34" s="16">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2454,35 +2454,35 @@
       <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="16">
+        <v>16</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="16">
         <v>11</v>
       </c>
-      <c r="C35" s="16">
-        <v>6</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0.74</v>
-      </c>
-      <c r="E35" s="16">
-        <v>7</v>
-      </c>
-      <c r="F35" s="16">
-        <v>4</v>
-      </c>
       <c r="G35" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="16">
-        <v>0.04</v>
+        <v>3</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="16">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="K35" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" s="16">
         <v>2</v>
@@ -2493,13 +2493,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C36" s="16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="E36" s="16">
         <v>2</v>
@@ -2508,42 +2508,42 @@
         <v>1</v>
       </c>
       <c r="G36" s="16">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H36" s="16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="16">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="16">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="16">
-        <v>26</v>
+      <c r="B37" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C37" s="16">
-        <v>17</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E37" s="16">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="16">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>14</v>
@@ -2555,39 +2555,39 @@
         <v>14</v>
       </c>
       <c r="J37" s="16">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="16" t="s">
-        <v>14</v>
+      <c r="L37" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="16">
-        <v>10</v>
+      <c r="B38" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C38" s="16">
-        <v>19</v>
-      </c>
-      <c r="D38" s="17">
-        <v>-0.46</v>
-      </c>
-      <c r="E38" s="16">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F38" s="16">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>14</v>
@@ -2596,10 +2596,10 @@
         <v>0.01</v>
       </c>
       <c r="K38" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,37 +2607,37 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C39" s="16">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D39" s="17">
-        <v>-8.7999999999999995E-2</v>
+        <v>-0.68</v>
       </c>
       <c r="E39" s="16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F39" s="16">
-        <v>17</v>
-      </c>
-      <c r="G39" s="16">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H39" s="16">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="16">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="16">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2645,25 +2645,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C40" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17">
-        <v>9.6000000000000002E-2</v>
+        <v>-0.38</v>
       </c>
       <c r="E40" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F40" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G40" s="16">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H40" s="16">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D41" s="14">
-        <v>0.18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E41" s="13">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F41" s="13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -2709,31 +2709,31 @@
       <c r="J41" s="13">
         <v>0</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>14</v>
+      <c r="K41" s="13">
+        <v>1</v>
       </c>
       <c r="L41" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>14</v>
+      <c r="B42" s="16">
+        <v>4</v>
       </c>
       <c r="C42" s="16">
-        <v>7</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D42" s="17">
+        <v>-0.64</v>
       </c>
       <c r="E42" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>14</v>
@@ -2762,16 +2762,16 @@
         <v>20</v>
       </c>
       <c r="C43" s="16">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17">
-        <v>0.51</v>
+        <v>-0.19</v>
       </c>
       <c r="E43" s="16">
         <v>20</v>
       </c>
       <c r="F43" s="16">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="16">
-        <v>4</v>
+      <c r="B44" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C44" s="16">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="16">
-        <v>3</v>
+      <c r="E44" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="16">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G44" s="16">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="16">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="L44" s="16">
         <v>0.04</v>
@@ -2835,16 +2835,16 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C45" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17">
-        <v>-0.16</v>
+        <v>0.91</v>
       </c>
       <c r="E45" s="16">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F45" s="16">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="16">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>14</v>
@@ -2865,7 +2865,7 @@
         <v>14</v>
       </c>
       <c r="L45" s="16">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2873,31 +2873,31 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C46" s="13">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.56000000000000005</v>
+        <v>0.31</v>
       </c>
       <c r="E46" s="13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F46" s="13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G46" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H46" s="13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="13">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>14</v>
@@ -2910,26 +2910,26 @@
       <c r="A47" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>14</v>
+      <c r="B47" s="16">
+        <v>12</v>
       </c>
       <c r="C47" s="16">
-        <v>8</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.65</v>
       </c>
       <c r="E47" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F47" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G47" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H47" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2937,8 +2937,8 @@
       <c r="J47" s="16">
         <v>0</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>14</v>
+      <c r="K47" s="16">
+        <v>0.44</v>
       </c>
       <c r="L47" s="16">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.54</v>
+        <v>-0.62</v>
       </c>
       <c r="E48" s="16">
         <v>2</v>
@@ -2990,16 +2990,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="17">
-        <v>0.01</v>
+        <v>0.41</v>
       </c>
       <c r="E49" s="16">
         <v>2</v>
       </c>
       <c r="F49" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="16">
         <v>0</v>
@@ -3017,45 +3017,45 @@
         <v>14</v>
       </c>
       <c r="L49" s="16">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>14</v>
+      <c r="B50" s="16">
+        <v>11</v>
       </c>
       <c r="C50" s="16">
-        <v>18</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.54</v>
       </c>
       <c r="E50" s="16">
         <v>4</v>
       </c>
       <c r="F50" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G50" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="16">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L50" s="16">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3063,25 +3063,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51" s="13">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D51" s="14">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="E51" s="13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F51" s="13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G51" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>14</v>
@@ -3101,19 +3101,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
+        <v>10</v>
+      </c>
+      <c r="C52" s="16">
         <v>7</v>
       </c>
-      <c r="C52" s="16">
-        <v>6</v>
-      </c>
       <c r="D52" s="17">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="E52" s="16">
+        <v>10</v>
+      </c>
+      <c r="F52" s="16">
         <v>7</v>
-      </c>
-      <c r="F52" s="16">
-        <v>6</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="16">
-        <v>0.48</v>
+        <v>4</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>14</v>
@@ -3151,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="16">
-        <v>0.48</v>
+        <v>4</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>14</v>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3253,25 +3253,25 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="C56" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.67</v>
+        <v>-0.93</v>
       </c>
       <c r="E56" s="16">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F56" s="16">
         <v>2</v>
       </c>
       <c r="G56" s="16">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="H56" s="16">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>14</v>
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3332,22 +3332,22 @@
         <v>14</v>
       </c>
       <c r="C58" s="16">
+        <v>5</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="16">
         <v>3</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="16">
-        <v>6</v>
-      </c>
       <c r="F58" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="16">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="17">
-        <v>-0.21</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="16">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,25 +3405,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.25</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>14</v>
+        <v>-0.46</v>
+      </c>
+      <c r="E60" s="13">
+        <v>6</v>
       </c>
       <c r="F60" s="13">
         <v>7</v>
       </c>
-      <c r="G60" s="13">
-        <v>2</v>
+      <c r="G60" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="H60" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>14</v>
@@ -3432,10 +3432,10 @@
         <v>0.12</v>
       </c>
       <c r="K60" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L60" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3443,37 +3443,37 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C61" s="16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D61" s="17">
-        <v>-0.32</v>
+        <v>-0.2</v>
       </c>
       <c r="E61" s="16">
         <v>5</v>
       </c>
       <c r="F61" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J61" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="K61" s="16">
-        <v>4</v>
+        <v>0.03</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="L61" s="16">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="16">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F62" s="16">
         <v>1</v>
@@ -3519,37 +3519,37 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
+        <v>2</v>
+      </c>
+      <c r="C63" s="16">
+        <v>6</v>
+      </c>
+      <c r="D63" s="17">
+        <v>-0.63</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1</v>
+      </c>
+      <c r="H63" s="16">
         <v>3</v>
       </c>
-      <c r="C63" s="16">
+      <c r="I63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="K63" s="16">
+        <v>1</v>
+      </c>
+      <c r="L63" s="16">
         <v>2</v>
-      </c>
-      <c r="D63" s="17">
-        <v>0.73</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G63" s="16">
-        <v>2</v>
-      </c>
-      <c r="H63" s="16">
-        <v>1</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="K63" s="16">
-        <v>1</v>
-      </c>
-      <c r="L63" s="16">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,37 +3557,37 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
+        <v>898</v>
+      </c>
+      <c r="C64" s="13">
         <v>959</v>
       </c>
-      <c r="C64" s="13">
-        <v>1071</v>
-      </c>
       <c r="D64" s="14">
-        <v>-0.1</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="F64" s="13">
-        <v>908</v>
+        <v>825</v>
       </c>
       <c r="G64" s="13">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H64" s="13">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J64" s="13">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>14</v>
       </c>
       <c r="L64" s="13">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3595,19 +3595,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C65" s="16">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D65" s="17">
-        <v>0.06</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E65" s="16">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F65" s="16">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>14</v>
       </c>
       <c r="J65" s="16">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="K65" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L65" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3633,37 +3633,37 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>827</v>
+        <v>747</v>
       </c>
       <c r="C66" s="16">
-        <v>946</v>
+        <v>863</v>
       </c>
       <c r="D66" s="17">
         <v>-0.13</v>
       </c>
       <c r="E66" s="16">
-        <v>687</v>
+        <v>630</v>
       </c>
       <c r="F66" s="16">
-        <v>791</v>
+        <v>735</v>
       </c>
       <c r="G66" s="16">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H66" s="16">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="I66" s="16">
         <v>1</v>
       </c>
       <c r="J66" s="16">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L66" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,25 +3671,25 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C67" s="13">
-        <v>1541</v>
+        <v>1720</v>
       </c>
       <c r="D67" s="14">
-        <v>1.6E-2</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="F67" s="13">
-        <v>1215</v>
+        <v>1348</v>
       </c>
       <c r="G67" s="13">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="H67" s="13">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="I67" s="13">
         <v>11</v>
@@ -3698,10 +3698,10 @@
         <v>7</v>
       </c>
       <c r="K67" s="13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L67" s="13">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
